--- a/genshin/429531166649398059_2020-08-31_12-00-18.xlsx
+++ b/genshin/429531166649398059_2020-08-31_12-00-18.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-10-13 14:49:09</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44117.61746527778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>3465558112</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:56:30</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44081.53923611111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-04 21:12:17</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44078.88353009259</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-04 17:05:11</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44078.71193287037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>3446816335</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:05:24</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44076.75375</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:13:58</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44076.59303240741</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -989,10 +993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-01 22:06:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44075.92140046296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-01 21:44:17</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44075.90575231481</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1135,10 +1135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-01 19:39:31</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44075.8191087963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-01 19:09:37</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44075.79834490741</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1277,10 +1273,8 @@
           <t>3441281943</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-01 08:10:34</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44075.3406712963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1344,10 +1338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-01 04:53:36</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44075.20388888889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1411,10 +1403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-01 02:39:52</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44075.11101851852</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1482,10 +1472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-01 01:57:15</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44075.08142361111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1553,10 +1541,8 @@
           <t>3440899745</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-01 01:17:27</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44075.05378472222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1632,10 +1618,8 @@
           <t>3440816645</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-01 00:42:20</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44075.02939814814</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1699,10 +1683,8 @@
           <t>3440717532</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-01 00:10:23</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44075.00721064815</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1770,10 +1752,8 @@
           <t>3440687394</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-01 00:02:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44075.00148148148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1849,10 +1829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-08-31 23:53:28</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44074.99546296296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1924,10 +1902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-08-31 23:18:35</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44074.97123842593</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1995,10 +1971,8 @@
           <t>3440464499</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-08-31 23:10:39</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44074.96572916667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2062,10 +2036,8 @@
           <t>3438087559</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-08-31 23:06:22</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44074.96275462963</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2133,10 +2105,8 @@
           <t>3440154427</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-08-31 22:05:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44074.92027777778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2204,10 +2174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-08-31 21:45:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44074.90673611111</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2275,10 +2243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-08-31 21:30:41</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44074.89630787037</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2346,10 +2312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-08-31 21:21:18</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44074.88979166667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2413,10 +2377,8 @@
           <t>3438087559</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:34:49</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44074.85751157408</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2484,10 +2446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:31:45</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44074.85538194444</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2547,10 +2507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:26:51</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44074.85197916667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2614,10 +2572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:05:47</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44074.83734953704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2689,10 +2645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:05:45</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44074.83732638889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2761,10 +2715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-08-31 20:04:46</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44074.83664351852</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2836,10 +2788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:38:00</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44074.81805555556</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2916,10 +2866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:21:15</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44074.80642361111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2991,10 +2939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-08-31 19:02:17</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44074.79325231481</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3062,10 +3008,8 @@
           <t>3439300066</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:58:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44074.79041666666</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3129,10 +3073,8 @@
           <t>3438087559</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:57:07</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44074.78966435185</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3208,10 +3150,8 @@
           <t>3439064668</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:52:29</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44074.78644675926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3283,10 +3223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:45:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44074.78130787037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3354,10 +3292,8 @@
           <t>3439235278</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:44:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44074.78059027778</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3429,10 +3365,8 @@
           <t>3439213438</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:40:52</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44074.77837962963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3504,10 +3438,8 @@
           <t>3439203810</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:39:39</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44074.77753472222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3579,10 +3511,8 @@
           <t>3439211032</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:39:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44074.77731481481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3654,10 +3584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:36:14</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44074.77516203704</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3733,10 +3661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:28:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44074.76997685185</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3812,10 +3738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:17:04</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44074.76185185185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3883,10 +3807,8 @@
           <t>3439064668</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:08:49</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44074.75612268518</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3950,10 +3872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-08-31 18:07:47</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44074.75540509259</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4025,10 +3945,8 @@
           <t>3439032177</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:59:59</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44074.74998842592</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4104,10 +4022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:45:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44074.74019675926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4175,10 +4091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:44:53</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44074.73950231481</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4255,10 +4169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:29:52</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44074.72907407407</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4334,10 +4246,8 @@
           <t>3437883517</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:16:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44074.71986111111</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4405,10 +4315,8 @@
           <t>3437883517</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:14:00</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44074.71805555555</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4480,10 +4388,8 @@
           <t>3438844509</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:12:13</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44074.71681712963</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4547,10 +4453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:11:18</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44074.71618055556</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4626,10 +4530,8 @@
           <t>3438448509</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:10:46</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44074.71581018518</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4697,10 +4599,8 @@
           <t>3438819036</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-08-31 17:05:40</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44074.71226851852</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4768,10 +4668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:53:46</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44074.70400462963</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4837,10 +4735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:52:00</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44074.70277777778</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4904,10 +4800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:44:01</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44074.69723379629</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4971,10 +4865,8 @@
           <t>3437883517</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:36:28</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44074.69199074074</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5042,10 +4934,8 @@
           <t>3437883517</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:33:50</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44074.69016203703</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5117,10 +5007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:29:17</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44074.68700231481</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5193,10 +5081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:27:52</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44074.68601851852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5256,10 +5142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:24:17</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44074.6835300926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5327,10 +5211,8 @@
           <t>3438675636</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:23:21</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44074.68288194444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5406,10 +5288,8 @@
           <t>3438142152</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:18:42</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44074.67965277778</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5477,10 +5357,8 @@
           <t>3437938589</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:17:58</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44074.67914351852</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5548,10 +5426,8 @@
           <t>3437883517</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:17:06</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44074.67854166667</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5619,10 +5495,8 @@
           <t>3437873719</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:16:28</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44074.67810185185</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5690,10 +5564,8 @@
           <t>3437830778</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:16:09</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44074.67788194444</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5761,10 +5633,8 @@
           <t>3437775264</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:15:37</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44074.67751157407</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5832,10 +5702,8 @@
           <t>3438149009</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:14:37</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44074.67681712963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5903,10 +5771,8 @@
           <t>3437921635</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:10:40</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44074.67407407407</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5974,10 +5840,8 @@
           <t>3437808075</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:04:19</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44074.66966435185</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6049,10 +5913,8 @@
           <t>3438149009</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:03:42</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44074.66923611111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6128,10 +5990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:02:58</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44074.66872685185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6199,10 +6059,8 @@
           <t>3438149009</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:02:31</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44074.66841435185</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6270,10 +6128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:02:08</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44074.66814814815</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6345,10 +6201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:51:15</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44074.66059027778</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6420,10 +6274,8 @@
           <t>3438561100</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:49:43</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44074.65952546296</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6487,10 +6339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:33:08</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44074.64800925926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6558,10 +6408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:28:13</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44074.6445949074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6633,10 +6481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:23:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44074.64128472222</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6700,10 +6546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:17:22</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44074.63706018519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6767,10 +6611,8 @@
           <t>3438195168</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:15:49</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44074.6359837963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6846,10 +6688,8 @@
           <t>3438448509</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:15:25</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44074.63570601852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6925,10 +6765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:15:18</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44074.635625</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6997,10 +6835,8 @@
           <t>3438447086</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:14:04</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44074.63476851852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7072,10 +6908,8 @@
           <t>3438442410</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:13:42</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44074.63451388889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7151,10 +6985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:12:36</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44074.63375</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7218,10 +7050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-08-31 15:09:37</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44074.63167824074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7293,10 +7123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:54:22</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44074.62108796297</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7360,10 +7188,8 @@
           <t>3437921635</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:52:35</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44074.61984953703</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7439,10 +7265,8 @@
           <t>3438357947</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:46:39</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44074.61572916667</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7510,10 +7334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:45:22</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44074.61483796296</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7589,10 +7411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:36:43</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44074.60883101852</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7656,10 +7476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:35:59</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44074.60832175926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7731,10 +7549,8 @@
           <t>3438318107</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:35:17</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44074.60783564814</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7803,10 +7619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:35:08</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44074.60773148148</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7874,10 +7688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:34:53</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44074.60755787037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7945,10 +7757,8 @@
           <t>3438314966</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:34:18</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44074.60715277777</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8017,10 +7827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:27:41</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44074.60255787037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8088,10 +7896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:24:27</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44074.6003125</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8155,10 +7961,8 @@
           <t>3438285040</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:23:30</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44074.59965277778</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8230,10 +8034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:20:06</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44074.59729166667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8305,10 +8107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:17:28</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44074.59546296296</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8376,10 +8176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:15:58</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44074.59442129629</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8439,10 +8237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:14:43</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44074.59355324074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8518,10 +8314,8 @@
           <t>3437873719</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:58</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44074.59164351852</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8589,10 +8383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44074.59123842593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8660,10 +8452,8 @@
           <t>3437745937</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:11:03</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44074.59100694444</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8731,10 +8521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:10:51</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44074.59086805556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8798,10 +8586,8 @@
           <t>3438229525</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:09:45</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44074.59010416667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8865,10 +8651,8 @@
           <t>3438082342</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:09:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44074.59008101852</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8944,10 +8728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:06:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44074.58793981482</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9019,10 +8801,8 @@
           <t>3437950175</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:05:57</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44074.58746527778</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9090,10 +8870,8 @@
           <t>3438214485</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:05:19</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44074.58702546296</v>
       </c>
       <c r="I120" t="n">
         <v>4</v>
@@ -9170,10 +8948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:16</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44074.58629629629</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9245,10 +9021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:04:14</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44074.58627314815</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9316,10 +9090,8 @@
           <t>3438195168</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:02:14</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44074.58488425926</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9387,10 +9159,8 @@
           <t>3438195168</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44074.58464120371</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9466,10 +9236,8 @@
           <t>3438203133</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-08-31 14:01:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44074.58412037037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9537,10 +9305,8 @@
           <t>3438196996</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:58:42</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44074.58243055556</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9604,10 +9370,8 @@
           <t>3438195168</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:57:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44074.58136574074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9675,10 +9439,8 @@
           <t>3438193233</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:56:56</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44074.5812037037</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9754,10 +9516,8 @@
           <t>3438181396</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:53:52</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44074.57907407408</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9825,10 +9585,8 @@
           <t>3438084305</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:53:22</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44074.57872685185</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9900,10 +9658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:51:36</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44074.5775</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9979,10 +9735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:50:55</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44074.57702546296</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10046,10 +9800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:50:18</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44074.57659722222</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10121,10 +9873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:50:18</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44074.57659722222</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10196,10 +9946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:50:02</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44074.57641203704</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10267,10 +10015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:50:01</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44074.57640046296</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10330,10 +10076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:49:16</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44074.57587962963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10393,10 +10137,8 @@
           <t>3438154851</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:48:16</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44074.57518518518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10468,10 +10210,8 @@
           <t>3437950175</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:47:54</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44074.57493055556</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10539,10 +10279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:47:28</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44074.57462962963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10602,10 +10340,8 @@
           <t>3438149009</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:44:43</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44074.57271990741</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10681,10 +10417,8 @@
           <t>3438142152</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:42:49</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44074.57140046296</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10748,10 +10482,8 @@
           <t>3438145900</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:42:06</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44074.57090277778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10827,10 +10559,8 @@
           <t>3438141211</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:42:01</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44074.57084490741</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -10890,10 +10620,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:39:41</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44074.56922453704</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10957,10 +10685,8 @@
           <t>3437717227</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:39:31</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44074.5691087963</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -11024,10 +10750,8 @@
           <t>3438127920</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:39:14</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44074.56891203704</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11099,10 +10823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:38:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44074.56851851852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11162,10 +10884,8 @@
           <t>3438122912</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:38:17</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44074.56825231481</v>
       </c>
       <c r="I149" t="n">
         <v>12</v>
@@ -11225,10 +10945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:34:43</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44074.56577546296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11300,10 +11018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:33:59</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44074.5652662037</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11379,10 +11095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:33:31</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44074.56494212963</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11454,10 +11168,8 @@
           <t>3437842857</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:33:23</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44074.56484953704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11529,10 +11241,8 @@
           <t>3438106608</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:33:09</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44074.5646875</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11592,10 +11302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:32:25</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44074.56417824074</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11664,10 +11372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:31:31</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44074.56355324074</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11735,10 +11441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:29:34</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44074.56219907408</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11802,10 +11506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:28:42</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44074.56159722222</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11873,10 +11575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:28:26</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44074.56141203704</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11944,10 +11644,8 @@
           <t>3438084305</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:28:13</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44074.56126157408</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -12019,10 +11717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:27:57</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44074.56107638889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12090,10 +11786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:27:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44074.56083333334</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12157,10 +11851,8 @@
           <t>3438087559</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:26:58</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44074.56039351852</v>
       </c>
       <c r="I163" t="n">
         <v>24</v>
@@ -12232,10 +11924,8 @@
           <t>3438082342</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:26:43</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44074.56021990741</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12304,10 +11994,8 @@
           <t>3438074346</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:24:29</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44074.55866898148</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12379,10 +12067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:24:15</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44074.55850694444</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12458,10 +12144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:22:31</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44074.55730324074</v>
       </c>
       <c r="I167" t="n">
         <v>5</v>
@@ -12533,10 +12217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:22:19</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44074.55716435185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12612,10 +12294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:21:26</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44074.55655092592</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12692,10 +12372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:21:07</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44074.55633101852</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12755,10 +12433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:20:13</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44074.55570601852</v>
       </c>
       <c r="I171" t="n">
         <v>12</v>
@@ -12834,10 +12510,8 @@
           <t>3437842857</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:19:30</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44074.55520833333</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12901,10 +12575,8 @@
           <t>3438051802</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:18:39</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44074.55461805555</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12964,10 +12636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:17:30</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44074.55381944445</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13039,10 +12709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:17:18</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44074.55368055555</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13119,10 +12787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:16:36</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44074.55319444444</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13190,10 +12856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:16:02</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44074.55280092593</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13263,10 +12927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:15:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44074.55214120371</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13330,10 +12992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:14:48</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44074.55194444444</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13409,10 +13069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:13:08</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44074.55078703703</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13484,10 +13142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:11:37</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44074.5497337963</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13551,10 +13207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:10:18</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44074.54881944445</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13614,10 +13268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:09:57</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44074.54857638889</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13693,10 +13345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:09:37</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44074.54834490741</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13772,10 +13422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:08:48</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44074.54777777778</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13847,10 +13495,8 @@
           <t>3438003663</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:08:28</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44074.54754629629</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13922,10 +13568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:07:24</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44074.54680555555</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13997,10 +13641,8 @@
           <t>3437999424</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:06:18</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44074.54604166667</v>
       </c>
       <c r="I188" t="n">
         <v>74</v>
@@ -14072,10 +13714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:06:08</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44074.54592592592</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14151,10 +13791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:05:40</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44074.54560185185</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14218,10 +13856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:05:36</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44074.54555555555</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14293,10 +13929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:05:24</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44074.54541666667</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14364,10 +13998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:04:32</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44074.54481481481</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14435,10 +14067,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:04:25</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44074.5447337963</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14498,10 +14128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:03:12</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44074.54388888889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14569,10 +14197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:02:45</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44074.54357638889</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14640,10 +14266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:02:43</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44074.54355324074</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14707,10 +14331,8 @@
           <t>3437979301</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:02:26</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44074.54335648148</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14774,10 +14396,8 @@
           <t>3437978697</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:02:01</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44074.54306712963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14849,10 +14469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-08-31 13:00:17</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44074.54186342593</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14928,10 +14546,8 @@
           <t>3437921635</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:59:54</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44074.54159722223</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14991,10 +14607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:59:52</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44074.54157407407</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15058,10 +14672,8 @@
           <t>3437842857</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:59:45</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44074.54149305556</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15133,10 +14745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:59:41</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44074.54144675926</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15204,10 +14814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:58:49</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44074.54084490741</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15271,10 +14879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:58:21</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44074.54052083333</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15346,10 +14952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:58:05</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44074.54033564815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15425,10 +15029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:58:04</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44074.54032407407</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15500,10 +15102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:57:29</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44074.53991898148</v>
       </c>
       <c r="I209" t="n">
         <v>10</v>
@@ -15571,10 +15171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:57:07</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44074.53966435185</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15646,10 +15244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:56:17</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44074.53908564815</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15725,10 +15321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:54:11</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44074.53762731481</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15800,10 +15394,8 @@
           <t>3437942785</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:53:55</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44074.53744212963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15879,10 +15471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:53:51</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44074.53739583334</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15950,10 +15540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:53:22</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44074.53706018518</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16013,10 +15601,8 @@
           <t>3437950175</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:52:45</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44074.53663194444</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16084,10 +15670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:52:28</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44074.53643518518</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16151,10 +15735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:52:27</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44074.53642361111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16222,10 +15804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:52:04</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44074.5361574074</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16289,10 +15869,8 @@
           <t>3437938589</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:51:42</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44074.53590277778</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16360,10 +15938,8 @@
           <t>3437927086</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:51:40</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44074.53587962963</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16427,10 +16003,8 @@
           <t>3437932295</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:50:44</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44074.53523148148</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16498,10 +16072,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:50:36</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44074.53513888889</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16577,10 +16149,8 @@
           <t>3437927086</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:50:04</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44074.53476851852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16648,10 +16218,8 @@
           <t>3437724919</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:49:07</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44074.5341087963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16715,10 +16283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:48:48</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44074.53388888889</v>
       </c>
       <c r="I226" t="n">
         <v>8</v>
@@ -16790,10 +16356,8 @@
           <t>3437919274</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:48:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44074.53377314815</v>
       </c>
       <c r="I227" t="n">
         <v>7</v>
@@ -16869,10 +16433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:48:28</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44074.53365740741</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16940,10 +16502,8 @@
           <t>3437922357</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:47:33</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44074.53302083333</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17012,10 +16572,8 @@
           <t>3437917035</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:47:08</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44074.53273148148</v>
       </c>
       <c r="I230" t="n">
         <v>28</v>
@@ -17087,10 +16645,8 @@
           <t>3437921635</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:47:03</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44074.53267361111</v>
       </c>
       <c r="I231" t="n">
         <v>9</v>
@@ -17158,10 +16714,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:46:48</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44074.5325</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17225,10 +16779,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:46:41</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44074.53241898148</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17292,10 +16844,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:46:34</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44074.53233796296</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17359,10 +16909,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:46:19</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44074.53216435185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17426,10 +16974,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:46:07</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44074.53202546296</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17493,10 +17039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:45:52</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44074.53185185185</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17564,10 +17108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:45:11</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44074.53137731482</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17639,10 +17181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:45:07</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44074.53133101852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17710,10 +17250,8 @@
           <t>3437899738</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:45:04</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44074.5312962963</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17785,10 +17323,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:44:55</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44074.53119212963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17860,10 +17396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:44:34</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44074.53094907408</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -17931,10 +17465,8 @@
           <t>3437902989</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:44:21</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44074.53079861111</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17998,10 +17530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:44:18</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44074.53076388889</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18073,10 +17603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:43:36</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44074.53027777778</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18144,10 +17672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:43:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44074.5300462963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18223,10 +17749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:42:30</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44074.52951388889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18299,10 +17823,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:42:20</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44074.52939814814</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18362,10 +17884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:42:19</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44074.52938657408</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18433,10 +17953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:42:01</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44074.52917824074</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18504,10 +18022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:41:58</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44074.52914351852</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18576,10 +18092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:41:25</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44074.52876157407</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18643,10 +18157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:41:15</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44074.52864583334</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18718,10 +18230,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:41:07</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44074.52855324074</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18785,10 +18295,8 @@
           <t>3437883517</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:40:47</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44074.52832175926</v>
       </c>
       <c r="I255" t="n">
         <v>33</v>
@@ -18860,10 +18368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:40:36</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44074.52819444444</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18939,10 +18445,8 @@
           <t>3437738738</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:40:19</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44074.52799768518</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19010,10 +18514,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:40:08</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44074.52787037037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19073,10 +18575,8 @@
           <t>3437881999</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:39:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44074.52762731481</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19152,10 +18652,8 @@
           <t>3437885154</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:38:54</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44074.52701388889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19227,10 +18725,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:38:34</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44074.52678240741</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19307,10 +18803,8 @@
           <t>3437869836</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:38:20</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44074.52662037037</v>
       </c>
       <c r="I262" t="n">
         <v>13</v>
@@ -19374,10 +18868,8 @@
           <t>3437873719</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:37:57</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44074.52635416666</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19453,10 +18945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:36:43</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44074.52549768519</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19528,10 +19018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:36:11</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44074.52512731482</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19607,10 +19095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:35:42</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44074.52479166666</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19682,10 +19168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:35:30</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44074.52465277778</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19761,10 +19245,8 @@
           <t>3437863876</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:35:07</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44074.52438657408</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19840,10 +19322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:34:32</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44074.52398148148</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19911,10 +19391,8 @@
           <t>3437853728</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:34:23</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44074.52387731482</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19990,10 +19468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:34:03</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44074.52364583333</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20063,10 +19539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:34:02</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44074.52363425926</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20130,10 +19604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:33:57</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44074.52357638889</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20197,10 +19669,8 @@
           <t>3437852209</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:33:23</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44074.52318287037</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20272,10 +19742,8 @@
           <t>3437840317</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:32:43</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44074.52271990741</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20339,10 +19807,8 @@
           <t>3437851199</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:32:42</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44074.52270833333</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20410,10 +19876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:32:39</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44074.52267361111</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20481,10 +19945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:31:22</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44074.52178240741</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20548,10 +20010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:31:17</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44074.52172453704</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20623,10 +20083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:31:10</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44074.52164351852</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20698,10 +20156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:31:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44074.52152777778</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20773,10 +20229,8 @@
           <t>3437842857</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:30:55</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44074.52146990741</v>
       </c>
       <c r="I282" t="n">
         <v>17</v>
@@ -20848,10 +20302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:30:54</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44074.52145833334</v>
       </c>
       <c r="I283" t="n">
         <v>11</v>
@@ -20927,10 +20379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:30:44</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44074.52134259259</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21006,10 +20456,8 @@
           <t>3437847207</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:30:44</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44074.52134259259</v>
       </c>
       <c r="I285" t="n">
         <v>6</v>
@@ -21085,10 +20533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:30:32</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44074.52120370371</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21156,10 +20602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:30:00</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44074.52083333334</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21223,10 +20667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:29:56</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44074.52078703704</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21290,10 +20732,8 @@
           <t>3437840317</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:29:53</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44074.52075231481</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21361,10 +20801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:29:24</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44074.52041666667</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21432,10 +20870,8 @@
           <t>3437835887</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:29:15</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44074.5203125</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21507,10 +20943,8 @@
           <t>3437840317</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:29:12</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44074.52027777778</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21574,10 +21008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:29:00</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44074.52013888889</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21641,10 +21073,8 @@
           <t>3437727085</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:28:49</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44074.52001157407</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21712,10 +21142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:28:48</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44074.52</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21787,10 +21215,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:28:45</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44074.51996527778</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21854,10 +21280,8 @@
           <t>3437829580</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:28:41</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44074.51991898148</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -21926,10 +21350,8 @@
           <t>3437829415</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:28:33</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44074.51982638889</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21997,10 +21419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:28:28</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44074.51976851852</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22076,10 +21496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:27:25</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44074.51903935185</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22151,10 +21569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:27:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44074.51888888889</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22222,10 +21638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:27:00</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44074.51875</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22301,10 +21715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:26:53</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44074.51866898148</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22376,10 +21788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:26:40</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44074.51851851852</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22447,10 +21857,8 @@
           <t>3437830778</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:26:28</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44074.51837962963</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22522,10 +21930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:25:29</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44074.51769675926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22593,10 +21999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:24:59</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44074.51734953704</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22668,10 +22072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:24:48</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44074.51722222222</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22739,10 +22141,8 @@
           <t>3437813651</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:24:38</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44074.51710648148</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -22814,10 +22214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:24:10</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44074.51678240741</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22881,10 +22279,8 @@
           <t>3437808075</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:23:59</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44074.51665509259</v>
       </c>
       <c r="I311" t="n">
         <v>7</v>
@@ -22948,10 +22344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:23:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44074.51660879629</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23023,10 +22417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:23:35</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44074.51637731482</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23090,10 +22482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:23:08</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44074.51606481482</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23157,10 +22547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:55</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44074.51591435185</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23232,10 +22620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:47</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44074.51582175926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23307,10 +22693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:25</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44074.51556712963</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23378,10 +22762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:21</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44074.51552083333</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23445,10 +22827,8 @@
           <t>3437804357</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:07</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44074.5153587963</v>
       </c>
       <c r="I319" t="n">
         <v>23</v>
@@ -23512,10 +22892,8 @@
           <t>3437804284</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:04</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44074.51532407408</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23591,10 +22969,8 @@
           <t>3437738738</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:04</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44074.51532407408</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23667,10 +23043,8 @@
           <t>3437805215</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:22:02</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44074.51530092592</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23746,10 +23120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:21:51</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44074.51517361111</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23817,10 +23189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:21:38</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44074.51502314815</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23892,10 +23262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:21:13</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44074.5147337963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23971,10 +23339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:21:13</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44074.5147337963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24042,10 +23408,8 @@
           <t>3437793629</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:20:59</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44074.51457175926</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24113,10 +23477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:20:51</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44074.51447916667</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24188,10 +23550,8 @@
           <t>3437802514</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:20:51</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44074.51447916667</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24269,10 +23629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:20:45</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44074.51440972222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24336,10 +23694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:20:36</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44074.51430555555</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24416,10 +23772,8 @@
           <t>3437792260</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:20:01</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44074.51390046296</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24495,10 +23849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:19:28</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44074.51351851852</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24558,10 +23910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:19:20</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44074.51342592593</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24625,10 +23975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:19:19</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44074.51341435185</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24692,10 +24040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:18:59</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44074.51318287037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24759,10 +24105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:18:55</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44074.51313657407</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24834,10 +24178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:18:55</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44074.51313657407</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24909,10 +24251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:18:40</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44074.51296296297</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -24980,10 +24320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:18:34</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44074.51289351852</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25059,10 +24397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:18:21</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44074.51274305556</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25138,10 +24474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:17:26</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44074.51210648148</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25217,10 +24551,8 @@
           <t>3437786661</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:53</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44074.51172453703</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25297,10 +24629,8 @@
           <t>3437747140</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44074.51168981481</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25368,10 +24698,8 @@
           <t>3437782263</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44074.51166666667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25439,10 +24767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:39</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44074.5115625</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25518,10 +24844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:36</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44074.51152777778</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25597,10 +24921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:26</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44074.51141203703</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25668,10 +24990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:16:00</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44074.51111111111</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25740,10 +25060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:50</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44074.51099537037</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25811,10 +25129,8 @@
           <t>3437729850</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:41</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44074.5108912037</v>
       </c>
       <c r="I351" t="n">
         <v>5</v>
@@ -25890,10 +25206,8 @@
           <t>3437774761</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:34</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44074.51081018519</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25969,10 +25283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:28</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44074.51074074074</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26044,10 +25356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:25</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44074.51070601852</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26115,10 +25425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:15</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44074.51059027778</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26190,10 +25498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:14</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44074.5105787037</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26267,10 +25573,8 @@
           <t>3437730364</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:14</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44074.5105787037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26346,10 +25650,8 @@
           <t>3437775264</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:12</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44074.51055555556</v>
       </c>
       <c r="I358" t="n">
         <v>6</v>
@@ -26413,10 +25715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:11</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44074.51054398148</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26488,10 +25788,8 @@
           <t>3437769761</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:15:01</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44074.51042824074</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26559,10 +25857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:59</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44074.51040509259</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26640,10 +25936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:58</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44074.51039351852</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26719,10 +26013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:56</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44074.51037037037</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26790,10 +26082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:36</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44074.51013888889</v>
       </c>
       <c r="I364" t="n">
         <v>21</v>
@@ -26869,10 +26159,8 @@
           <t>3437773339</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:34</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44074.51011574074</v>
       </c>
       <c r="I365" t="n">
         <v>30</v>
@@ -26936,10 +26224,8 @@
           <t>3437724336</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:27</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44074.51003472223</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27007,10 +26293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:03</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44074.50975694445</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27078,10 +26362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:01</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44074.50973379629</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27153,10 +26435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:14:00</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44074.50972222222</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27228,10 +26508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:58</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44074.50969907407</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27299,10 +26577,8 @@
           <t>3437772285</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:49</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44074.50959490741</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27374,10 +26650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:43</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44074.50952546296</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27453,10 +26727,8 @@
           <t>3437771763</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:28</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44074.50935185186</v>
       </c>
       <c r="I373" t="n">
         <v>35</v>
@@ -27532,10 +26804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:23</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44074.50929398148</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27611,10 +26881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:13</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44074.50917824074</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27678,10 +26946,8 @@
           <t>3437771406</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:12</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44074.50916666666</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27749,10 +27015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:13:07</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44074.50910879629</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27824,10 +27088,8 @@
           <t>3437730364</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:12:27</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44074.50864583333</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27895,10 +27157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:12:26</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44074.50863425926</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27970,10 +27230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:12:19</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44074.50855324074</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28045,10 +27303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:12:16</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44074.50851851852</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28124,10 +27380,8 @@
           <t>3437759863</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:12:09</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44074.5084375</v>
       </c>
       <c r="I382" t="n">
         <v>46</v>
@@ -28199,10 +27453,8 @@
           <t>3437759550</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:57</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44074.50829861111</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28278,10 +27530,8 @@
           <t>3437760459</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:55</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44074.50827546296</v>
       </c>
       <c r="I384" t="n">
         <v>26</v>
@@ -28358,10 +27608,8 @@
           <t>3437738738</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:39</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44074.50809027778</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28433,10 +27681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:38</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44074.5080787037</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28500,10 +27746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44074.50805555555</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28579,10 +27823,8 @@
           <t>3437754739</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:33</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44074.50802083333</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28658,10 +27900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:31</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44074.50799768518</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28737,10 +27977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44074.5078587963</v>
       </c>
       <c r="I390" t="n">
         <v>5</v>
@@ -28808,10 +28046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:18</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44074.50784722222</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28883,10 +28119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:15</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44074.5078125</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28962,10 +28196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:11:12</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44074.50777777778</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29033,10 +28265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:10:58</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44074.50761574074</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29114,10 +28344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:10:45</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44074.50746527778</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29193,10 +28421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:10:34</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44074.50733796296</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29260,10 +28486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:10:25</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44074.5072337963</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29339,10 +28563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:10:24</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44074.50722222222</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29410,10 +28632,8 @@
           <t>3437750492</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:10:19</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44074.50716435185</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29485,10 +28705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:59</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44074.50693287037</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29556,10 +28774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:39</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44074.50670138889</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29635,10 +28851,8 @@
           <t>3437747140</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:36</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44074.50666666667</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29714,10 +28928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:33</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44074.50663194444</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29793,10 +29005,8 @@
           <t>3437724336</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:29</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44074.50658564815</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29860,10 +29070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:28</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44074.50657407408</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29927,10 +29135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:15</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44074.50642361111</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29998,10 +29204,8 @@
           <t>3437738738</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:06</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44074.50631944444</v>
       </c>
       <c r="I407" t="n">
         <v>7</v>
@@ -30065,10 +29269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:09:01</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44074.50626157408</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30140,10 +29342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:08:54</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44074.50618055555</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30219,10 +29419,8 @@
           <t>3437745937</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:08:45</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44074.50607638889</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30290,10 +29488,8 @@
           <t>3437750492</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:08:37</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44074.5059837963</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30353,10 +29549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:08:26</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44074.50585648148</v>
       </c>
       <c r="I412" t="n">
         <v>12</v>
@@ -30435,10 +29629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:08:20</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44074.50578703704</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30502,10 +29694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:08:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44074.50556712963</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30577,10 +29767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:57</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44074.50552083334</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30656,10 +29844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:52</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44074.50546296296</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30723,10 +29909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:52</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44074.50546296296</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30790,10 +29974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:40</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44074.50532407407</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30865,10 +30047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:32</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44074.50523148148</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30944,10 +30124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:26</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44074.50516203704</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31023,10 +30201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:25</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44074.50515046297</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31090,10 +30266,8 @@
           <t>3437738738</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:25</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44074.50515046297</v>
       </c>
       <c r="I422" t="n">
         <v>218</v>
@@ -31165,10 +30339,8 @@
           <t>3437724336</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:18</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44074.50506944444</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31232,10 +30404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:17</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44074.50505787037</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31307,10 +30477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:07:01</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44074.50487268518</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31386,10 +30554,8 @@
           <t>3437724336</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:55</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44074.50480324074</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31465,10 +30631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:54</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44074.50479166667</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31540,10 +30704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:52</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44074.50476851852</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31607,10 +30769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:42</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44074.50465277778</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31674,10 +30834,8 @@
           <t>3437741973</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:41</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44074.5046412037</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -31754,10 +30912,8 @@
           <t>3437741817</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:34</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44074.50456018518</v>
       </c>
       <c r="I431" t="n">
         <v>20</v>
@@ -31833,10 +30989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:31</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44074.50452546297</v>
       </c>
       <c r="I432" t="n">
         <v>4</v>
@@ -31904,10 +31058,8 @@
           <t>3437732594</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:25</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44074.50445601852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31967,10 +31119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:19</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44074.50438657407</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32042,10 +31192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:18</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44074.504375</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32109,10 +31257,8 @@
           <t>3437732444</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:18</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44074.504375</v>
       </c>
       <c r="I436" t="n">
         <v>5</v>
@@ -32180,10 +31326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:15</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44074.50434027778</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32247,10 +31391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:15</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44074.50434027778</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32314,10 +31456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:08</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44074.50425925926</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32382,10 +31522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:06:05</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44074.50422453704</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32461,10 +31599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:59</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44074.5041550926</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32533,10 +31669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:58</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44074.50414351852</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32604,10 +31738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:52</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44074.50407407407</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32675,10 +31807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:32</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44074.5038425926</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32750,10 +31880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:29</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44074.50380787037</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32821,10 +31949,8 @@
           <t>3437717227</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:19</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44074.50369212963</v>
       </c>
       <c r="I446" t="n">
         <v>34</v>
@@ -32900,10 +32026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:11</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44074.50359953703</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32975,10 +32099,8 @@
           <t>3437735491</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:08</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44074.50356481481</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33046,10 +32168,8 @@
           <t>3437735440</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:05:06</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44074.50354166667</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33125,10 +32245,8 @@
           <t>3437729503</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:57</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44074.5034375</v>
       </c>
       <c r="I450" t="n">
         <v>5</v>
@@ -33192,10 +32310,8 @@
           <t>3437724919</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:44</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44074.50328703703</v>
       </c>
       <c r="I451" t="n">
         <v>11</v>
@@ -33263,10 +32379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:39</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44074.50322916666</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33342,10 +32456,8 @@
           <t>3437725319</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:32</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44074.50314814815</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33417,10 +32529,8 @@
           <t>3437727085</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:32</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44074.50314814815</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33484,10 +32594,8 @@
           <t>3437728806</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:27</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44074.50309027778</v>
       </c>
       <c r="I455" t="n">
         <v>8</v>
@@ -33563,10 +32671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:26</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44074.5030787037</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33634,10 +32740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:21</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44074.50302083333</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33705,10 +32809,8 @@
           <t>3437724336</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:19</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44074.50299768519</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33776,10 +32878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:17</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44074.50297453703</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33851,10 +32951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:09</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44074.50288194444</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33922,10 +33020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:08</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44074.50287037037</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -33993,10 +33089,8 @@
           <t>3437719344</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:06</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44074.50284722223</v>
       </c>
       <c r="I462" t="n">
         <v>10</v>
@@ -34072,10 +33166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:05</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44074.50283564815</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34143,10 +33235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:04:01</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44074.50278935185</v>
       </c>
       <c r="I464" t="n">
         <v>152</v>
@@ -34214,10 +33304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:59</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44074.5027662037</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34289,10 +33377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:57</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44074.50274305556</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34356,10 +33442,8 @@
           <t>3437723729</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:53</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44074.50269675926</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34427,10 +33511,8 @@
           <t>3437725319</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:46</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44074.50261574074</v>
       </c>
       <c r="I468" t="n">
         <v>9</v>
@@ -34498,10 +33580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:46</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44074.50261574074</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34569,10 +33649,8 @@
           <t>3437727771</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:45</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44074.50260416666</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34592,9 +33670,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M470">
-        <f>͟͟͞͞( 'ヮ' 三 'ヮ' =͟͟͞͞)　</f>
-        <v/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">=͟͟͞͞( 'ヮ' 三 'ヮ' =͟͟͞͞)　</t>
+        </is>
       </c>
       <c r="N470" t="n">
         <v>5</v>
@@ -34647,10 +33726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:43</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44074.50258101852</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34718,10 +33795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:39</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44074.50253472223</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34789,10 +33864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:39</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44074.50253472223</v>
       </c>
       <c r="I473" t="n">
         <v>2</v>
@@ -34868,10 +33941,8 @@
           <t>3437723216</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:32</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44074.5024537037</v>
       </c>
       <c r="I474" t="n">
         <v>61</v>
@@ -34935,10 +34006,8 @@
           <t>3437718438</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:29</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44074.50241898148</v>
       </c>
       <c r="I475" t="n">
         <v>3</v>
@@ -35014,10 +34083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:26</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44074.50238425926</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35085,10 +34152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:26</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44074.50238425926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35156,10 +34221,8 @@
           <t>3437722985</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:23</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44074.50234953704</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35224,10 +34287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:21</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44074.50232638889</v>
       </c>
       <c r="I479" t="n">
         <v>16</v>
@@ -35299,10 +34360,8 @@
           <t>3437727085</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:15</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44074.50225694444</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35370,10 +34429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:12</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44074.50222222223</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35433,10 +34490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:11</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44074.50221064815</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35508,10 +34563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:03:06</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44074.50215277778</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35579,10 +34632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:57</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44074.50204861111</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35654,10 +34705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:57</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44074.50204861111</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35729,10 +34778,8 @@
           <t>3437722202</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:51</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44074.50197916666</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35800,10 +34847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:49</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44074.50195601852</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35879,10 +34924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:49</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44074.50195601852</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35955,10 +34998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:44</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44074.50189814815</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36026,10 +35067,8 @@
           <t>3437721973</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:41</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44074.50186342592</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36101,10 +35140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:39</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44074.50184027778</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36176,10 +35213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:38</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44074.5018287037</v>
       </c>
       <c r="I492" t="n">
         <v>116</v>
@@ -36247,10 +35282,8 @@
           <t>3437717227</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:38</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44074.5018287037</v>
       </c>
       <c r="I493" t="n">
         <v>88</v>
@@ -36326,10 +35359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:36</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44074.50180555556</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36401,10 +35432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:31</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44074.50174768519</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36472,10 +35501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:30</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44074.50173611111</v>
       </c>
       <c r="I496" t="n">
         <v>32</v>
@@ -36547,10 +35574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:29</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44074.50172453704</v>
       </c>
       <c r="I497" t="n">
         <v>3</v>
@@ -36622,10 +35647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:29</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44074.50172453704</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36694,10 +35717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44074.50172453704</v>
       </c>
       <c r="I499" t="n">
         <v>56</v>
@@ -36773,10 +35794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:29</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44074.50172453704</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36852,10 +35871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:25</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44074.50167824074</v>
       </c>
       <c r="I501" t="n">
         <v>625</v>
@@ -36931,10 +35948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:25</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44074.50167824074</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -36998,10 +36013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:24</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44074.50166666666</v>
       </c>
       <c r="I503" t="n">
         <v>2</v>
@@ -37069,10 +36082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:24</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44074.50166666666</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37140,10 +36151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:24</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44074.50166666666</v>
       </c>
       <c r="I505" t="n">
         <v>2</v>
@@ -37219,10 +36228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:21</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44074.50163194445</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37298,10 +36305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:20</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44074.50162037037</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37361,10 +36366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:19</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44074.50160879629</v>
       </c>
       <c r="I508" t="n">
         <v>77</v>
@@ -37440,10 +36443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:16</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44074.50157407407</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37515,10 +36516,8 @@
           <t>3437721295</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44074.50155092592</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37582,10 +36581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:12</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44074.50152777778</v>
       </c>
       <c r="I511" t="n">
         <v>468</v>
@@ -37657,10 +36654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:12</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44074.50152777778</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37732,10 +36727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:09</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44074.50149305556</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37799,10 +36792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:08</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44074.50148148148</v>
       </c>
       <c r="I514" t="n">
         <v>497</v>
@@ -37870,10 +36861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:07</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44074.50146990741</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37949,10 +36938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:05</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44074.50144675926</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38028,10 +37015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:03</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44074.50142361111</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38095,10 +37080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:03</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44074.50142361111</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38162,10 +37145,8 @@
           <t>3437725319</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:02:03</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44074.50142361111</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38237,10 +37218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:59</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44074.50137731482</v>
       </c>
       <c r="I520" t="n">
         <v>90</v>
@@ -38316,10 +37295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:57</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44074.50135416666</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38387,10 +37364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:57</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44074.50135416666</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38454,10 +37429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:52</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44074.50129629629</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38529,10 +37502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:51</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44074.50128472222</v>
       </c>
       <c r="I524" t="n">
         <v>187</v>
@@ -38608,10 +37579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:50</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44074.50127314815</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38679,10 +37648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:49</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44074.50126157407</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38746,10 +37713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:43</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44074.50119212963</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38813,10 +37778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:40</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44074.50115740741</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38880,10 +37843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:40</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44074.50115740741</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38947,10 +37908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:39</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44074.50114583333</v>
       </c>
       <c r="I530" t="n">
         <v>597</v>
@@ -39018,10 +37977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:39</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44074.50114583333</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39093,10 +38050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:33</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44074.50107638889</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39165,10 +38120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:28</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44074.50101851852</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39240,10 +38193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:27</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44074.50100694445</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39307,10 +38258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:24</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44074.50097222222</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39382,10 +38331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:23</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44074.50096064815</v>
       </c>
       <c r="I536" t="n">
         <v>155</v>
@@ -39453,10 +38400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:19</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44074.50091435185</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39520,10 +38465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:18</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44074.50090277778</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39587,10 +38530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:16</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44074.50087962963</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -39666,10 +38607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:15</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44074.50086805555</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39741,10 +38680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:14</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44074.50085648148</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39808,10 +38745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:14</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44074.50085648148</v>
       </c>
       <c r="I542" t="n">
         <v>2</v>
@@ -39887,10 +38822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:13</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44074.50084490741</v>
       </c>
       <c r="I543" t="n">
         <v>2</v>
@@ -39966,10 +38899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:09</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44074.50079861111</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40041,10 +38972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:08</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44074.50078703704</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40116,10 +39045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:08</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44074.50078703704</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40187,10 +39114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:08</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44074.50078703704</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40258,10 +39183,8 @@
           <t>3437713947</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:07</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44074.50077546296</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40333,10 +39256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:07</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44074.50077546296</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40412,10 +39333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:06</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44074.50076388889</v>
       </c>
       <c r="I550" t="n">
         <v>8</v>
@@ -40479,10 +39398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:06</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44074.50076388889</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40554,10 +39471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:05</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44074.50075231482</v>
       </c>
       <c r="I552" t="n">
         <v>4</v>
@@ -40625,10 +39540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:04</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44074.50074074074</v>
       </c>
       <c r="I553" t="n">
         <v>2</v>
@@ -40704,10 +39617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:03</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44074.50072916667</v>
       </c>
       <c r="I554" t="n">
         <v>152</v>
@@ -40775,10 +39686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:02</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44074.50071759259</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40855,10 +39764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:01:01</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44074.50070601852</v>
       </c>
       <c r="I556" t="n">
         <v>3</v>
@@ -40926,10 +39833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:59</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44074.50068287037</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41005,10 +39910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:58</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44074.50067129629</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41084,10 +39987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:58</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44074.50067129629</v>
       </c>
       <c r="I559" t="n">
         <v>2075</v>
@@ -41151,10 +40052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:57</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44074.50065972222</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41222,10 +40121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:57</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44074.50065972222</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41299,10 +40196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:55</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44074.50063657408</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41378,10 +40273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:55</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44074.50063657408</v>
       </c>
       <c r="I563" t="n">
         <v>2</v>
@@ -41453,10 +40346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:54</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44074.500625</v>
       </c>
       <c r="I564" t="n">
         <v>2</v>
@@ -41524,10 +40415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:54</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44074.500625</v>
       </c>
       <c r="I565" t="n">
         <v>1</v>
@@ -41603,10 +40492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:53</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44074.50061342592</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41682,10 +40569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:53</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44074.50061342592</v>
       </c>
       <c r="I567" t="n">
         <v>2</v>
@@ -41761,10 +40646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:53</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44074.50061342592</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41832,10 +40715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:52</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44074.50060185185</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41903,10 +40784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:51</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44074.50059027778</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -41982,10 +40861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:51</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44074.50059027778</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42053,10 +40930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:50</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44074.5005787037</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42134,10 +41009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:50</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44074.5005787037</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42209,10 +41082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:48</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44074.50055555555</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42276,10 +41147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:47</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44074.50054398148</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42351,10 +41220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:47</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44074.50054398148</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42418,10 +41285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:46</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44074.50053240741</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42493,10 +41358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:45</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44074.50052083333</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42572,10 +41435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:43</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44074.50049768519</v>
       </c>
       <c r="I579" t="n">
         <v>1</v>
@@ -42643,10 +41504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:43</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44074.50049768519</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42710,10 +41569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:42</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44074.50048611111</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -42781,10 +41638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:42</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44074.50048611111</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42852,10 +41707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:42</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44074.50048611111</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42923,10 +41776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:42</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44074.50048611111</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -42998,10 +41849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:42</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44074.50048611111</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43077,10 +41926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:42</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44074.50048611111</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43152,10 +41999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:41</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44074.50047453704</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43219,10 +42064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:41</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44074.50047453704</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43286,10 +42129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:40</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44074.50046296296</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43365,10 +42206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:40</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44074.50046296296</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43436,10 +42275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:39</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44074.50045138889</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43515,10 +42352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:36</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44074.50041666667</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43591,10 +42426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:36</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44074.50041666667</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43658,10 +42491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:34</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44074.50039351852</v>
       </c>
       <c r="I594" t="n">
         <v>789</v>
@@ -43729,10 +42560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-08-31 12:00:33</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44074.50038194445</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
